--- a/data.xlsx
+++ b/data.xlsx
@@ -12,20 +12,20 @@
     <workbookView xWindow="135" yWindow="45" windowWidth="12120" windowHeight="8820"/>
   </bookViews>
   <sheets>
-    <sheet name="Wine Collection" sheetId="1" r:id="rId1"/>
+    <sheet name="Collection" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wine Collection'!$A$3:$S$4</definedName>
-    <definedName name="A">'Wine Collection'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Wine Collection'!$1:$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection!$A$3:$S$4</definedName>
+    <definedName name="A">Collection!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Collection!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3252" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3269" uniqueCount="99">
   <si>
     <t>Notes</t>
   </si>
@@ -286,6 +286,42 @@
   </si>
   <si>
     <t>Arturo Toscanini</t>
+  </si>
+  <si>
+    <t>Claude Debussy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York Philharmonic </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le Mer,Prelude a l'apres midi d'un faune, Jeux, Nocturnes</t>
+  </si>
+  <si>
+    <t>Chamber</t>
+  </si>
+  <si>
+    <t>1960/1961</t>
+  </si>
+  <si>
+    <t>1961/1965</t>
+  </si>
+  <si>
+    <t>Concerto</t>
+  </si>
+  <si>
+    <t>Concerto for Piano No.2</t>
+  </si>
+  <si>
+    <t>Andre Watts</t>
+  </si>
+  <si>
+    <t>Johannes Brahms</t>
+  </si>
+  <si>
+    <t>Glenn Gould</t>
+  </si>
+  <si>
+    <t>Concerto for Piano No.1</t>
   </si>
 </sst>
 </file>
@@ -1339,10 +1375,10 @@
   <dimension ref="A1:S795"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B464" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B37" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D550" sqref="D468:D550"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3450,7 +3486,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>46</v>
@@ -3498,7 +3534,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>46</v>
@@ -8551,7 +8587,9 @@
       <c r="I154" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J154" s="5"/>
+      <c r="J154" s="5">
+        <v>1</v>
+      </c>
       <c r="K154" s="5" t="s">
         <v>75</v>
       </c>
@@ -8589,7 +8627,9 @@
       <c r="I155" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J155" s="5"/>
+      <c r="J155" s="5">
+        <v>2</v>
+      </c>
       <c r="K155" s="5" t="s">
         <v>75</v>
       </c>
@@ -8627,7 +8667,9 @@
       <c r="I156" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J156" s="5"/>
+      <c r="J156" s="5">
+        <v>3</v>
+      </c>
       <c r="K156" s="5" t="s">
         <v>75</v>
       </c>
@@ -8665,7 +8707,9 @@
       <c r="I157" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J157" s="5"/>
+      <c r="J157" s="5">
+        <v>4</v>
+      </c>
       <c r="K157" s="5" t="s">
         <v>75</v>
       </c>
@@ -8703,7 +8747,9 @@
       <c r="I158" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J158" s="5"/>
+      <c r="J158" s="5">
+        <v>5</v>
+      </c>
       <c r="K158" s="5" t="s">
         <v>75</v>
       </c>
@@ -8741,7 +8787,9 @@
       <c r="I159" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J159" s="5"/>
+      <c r="J159" s="5">
+        <v>6</v>
+      </c>
       <c r="K159" s="5" t="s">
         <v>75</v>
       </c>
@@ -8779,7 +8827,9 @@
       <c r="I160" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J160" s="5"/>
+      <c r="J160" s="5">
+        <v>7</v>
+      </c>
       <c r="K160" s="5" t="s">
         <v>75</v>
       </c>
@@ -8817,7 +8867,9 @@
       <c r="I161" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J161" s="5"/>
+      <c r="J161" s="5">
+        <v>8</v>
+      </c>
       <c r="K161" s="5" t="s">
         <v>75</v>
       </c>
@@ -8855,7 +8907,9 @@
       <c r="I162" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J162" s="5"/>
+      <c r="J162" s="5">
+        <v>9</v>
+      </c>
       <c r="K162" s="5" t="s">
         <v>75</v>
       </c>
@@ -8893,7 +8947,9 @@
       <c r="I163" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J163" s="5"/>
+      <c r="J163" s="5">
+        <v>10</v>
+      </c>
       <c r="K163" s="5" t="s">
         <v>75</v>
       </c>
@@ -8918,20 +8974,32 @@
         <v>161</v>
       </c>
       <c r="B164" s="5">
-        <v>0</v>
-      </c>
-      <c r="C164" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="D164" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
+      <c r="E164" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I164" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J164" s="5"/>
+      <c r="J164" s="5">
+        <v>11</v>
+      </c>
       <c r="K164" s="5" t="s">
         <v>75</v>
       </c>
@@ -8956,24 +9024,38 @@
         <v>162</v>
       </c>
       <c r="B165" s="5">
-        <v>0</v>
-      </c>
-      <c r="C165" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="D165" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
+      <c r="E165" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I165" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J165" s="5"/>
+      <c r="J165" s="5">
+        <v>12</v>
+      </c>
       <c r="K165" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L165" s="5"/>
+      <c r="L165" s="5">
+        <v>1978</v>
+      </c>
       <c r="M165" s="5">
         <v>2014</v>
       </c>
@@ -9007,7 +9089,9 @@
       <c r="I166" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J166" s="5"/>
+      <c r="J166" s="5">
+        <v>13</v>
+      </c>
       <c r="K166" s="5" t="s">
         <v>75</v>
       </c>
@@ -9045,7 +9129,9 @@
       <c r="I167" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J167" s="5"/>
+      <c r="J167" s="5">
+        <v>14</v>
+      </c>
       <c r="K167" s="5" t="s">
         <v>75</v>
       </c>
@@ -9083,7 +9169,9 @@
       <c r="I168" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J168" s="5"/>
+      <c r="J168" s="5">
+        <v>15</v>
+      </c>
       <c r="K168" s="5" t="s">
         <v>75</v>
       </c>
@@ -9121,7 +9209,9 @@
       <c r="I169" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J169" s="5"/>
+      <c r="J169" s="5">
+        <v>16</v>
+      </c>
       <c r="K169" s="5" t="s">
         <v>75</v>
       </c>
@@ -9159,7 +9249,9 @@
       <c r="I170" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J170" s="5"/>
+      <c r="J170" s="5">
+        <v>17</v>
+      </c>
       <c r="K170" s="5" t="s">
         <v>75</v>
       </c>
@@ -9197,7 +9289,9 @@
       <c r="I171" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J171" s="5"/>
+      <c r="J171" s="5">
+        <v>18</v>
+      </c>
       <c r="K171" s="5" t="s">
         <v>75</v>
       </c>
@@ -9235,7 +9329,9 @@
       <c r="I172" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J172" s="5"/>
+      <c r="J172" s="5">
+        <v>19</v>
+      </c>
       <c r="K172" s="5" t="s">
         <v>75</v>
       </c>
@@ -9273,7 +9369,9 @@
       <c r="I173" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J173" s="5"/>
+      <c r="J173" s="5">
+        <v>20</v>
+      </c>
       <c r="K173" s="5" t="s">
         <v>75</v>
       </c>
@@ -9311,7 +9409,9 @@
       <c r="I174" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J174" s="5"/>
+      <c r="J174" s="5">
+        <v>21</v>
+      </c>
       <c r="K174" s="5" t="s">
         <v>75</v>
       </c>
@@ -9349,7 +9449,9 @@
       <c r="I175" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J175" s="5"/>
+      <c r="J175" s="5">
+        <v>22</v>
+      </c>
       <c r="K175" s="5" t="s">
         <v>75</v>
       </c>
@@ -9387,7 +9489,9 @@
       <c r="I176" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J176" s="5"/>
+      <c r="J176" s="5">
+        <v>23</v>
+      </c>
       <c r="K176" s="5" t="s">
         <v>75</v>
       </c>
@@ -9425,7 +9529,9 @@
       <c r="I177" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J177" s="5"/>
+      <c r="J177" s="5">
+        <v>24</v>
+      </c>
       <c r="K177" s="5" t="s">
         <v>75</v>
       </c>
@@ -9463,7 +9569,9 @@
       <c r="I178" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J178" s="5"/>
+      <c r="J178" s="5">
+        <v>25</v>
+      </c>
       <c r="K178" s="5" t="s">
         <v>75</v>
       </c>
@@ -9501,7 +9609,9 @@
       <c r="I179" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J179" s="5"/>
+      <c r="J179" s="5">
+        <v>26</v>
+      </c>
       <c r="K179" s="5" t="s">
         <v>75</v>
       </c>
@@ -9539,7 +9649,9 @@
       <c r="I180" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J180" s="5"/>
+      <c r="J180" s="5">
+        <v>27</v>
+      </c>
       <c r="K180" s="5" t="s">
         <v>75</v>
       </c>
@@ -9577,7 +9689,9 @@
       <c r="I181" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J181" s="5"/>
+      <c r="J181" s="5">
+        <v>28</v>
+      </c>
       <c r="K181" s="5" t="s">
         <v>75</v>
       </c>
@@ -9615,7 +9729,9 @@
       <c r="I182" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J182" s="5"/>
+      <c r="J182" s="5">
+        <v>29</v>
+      </c>
       <c r="K182" s="5" t="s">
         <v>75</v>
       </c>
@@ -9653,7 +9769,9 @@
       <c r="I183" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J183" s="5"/>
+      <c r="J183" s="5">
+        <v>30</v>
+      </c>
       <c r="K183" s="5" t="s">
         <v>75</v>
       </c>
@@ -9691,7 +9809,9 @@
       <c r="I184" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J184" s="5"/>
+      <c r="J184" s="5">
+        <v>31</v>
+      </c>
       <c r="K184" s="5" t="s">
         <v>75</v>
       </c>
@@ -9729,7 +9849,9 @@
       <c r="I185" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J185" s="5"/>
+      <c r="J185" s="5">
+        <v>32</v>
+      </c>
       <c r="K185" s="5" t="s">
         <v>75</v>
       </c>
@@ -9767,7 +9889,9 @@
       <c r="I186" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J186" s="5"/>
+      <c r="J186" s="5">
+        <v>33</v>
+      </c>
       <c r="K186" s="5" t="s">
         <v>75</v>
       </c>
@@ -9805,7 +9929,9 @@
       <c r="I187" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J187" s="5"/>
+      <c r="J187" s="5">
+        <v>34</v>
+      </c>
       <c r="K187" s="5" t="s">
         <v>75</v>
       </c>
@@ -9843,7 +9969,9 @@
       <c r="I188" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J188" s="5"/>
+      <c r="J188" s="5">
+        <v>35</v>
+      </c>
       <c r="K188" s="5" t="s">
         <v>75</v>
       </c>
@@ -9881,7 +10009,9 @@
       <c r="I189" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J189" s="5"/>
+      <c r="J189" s="5">
+        <v>36</v>
+      </c>
       <c r="K189" s="5" t="s">
         <v>75</v>
       </c>
@@ -9919,7 +10049,9 @@
       <c r="I190" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J190" s="5"/>
+      <c r="J190" s="5">
+        <v>37</v>
+      </c>
       <c r="K190" s="5" t="s">
         <v>75</v>
       </c>
@@ -9957,7 +10089,9 @@
       <c r="I191" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J191" s="5"/>
+      <c r="J191" s="5">
+        <v>38</v>
+      </c>
       <c r="K191" s="5" t="s">
         <v>75</v>
       </c>
@@ -9995,7 +10129,9 @@
       <c r="I192" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J192" s="5"/>
+      <c r="J192" s="5">
+        <v>39</v>
+      </c>
       <c r="K192" s="5" t="s">
         <v>75</v>
       </c>
@@ -10033,7 +10169,9 @@
       <c r="I193" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J193" s="5"/>
+      <c r="J193" s="5">
+        <v>40</v>
+      </c>
       <c r="K193" s="5" t="s">
         <v>75</v>
       </c>
@@ -10071,7 +10209,9 @@
       <c r="I194" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J194" s="5"/>
+      <c r="J194" s="5">
+        <v>41</v>
+      </c>
       <c r="K194" s="5" t="s">
         <v>75</v>
       </c>
@@ -10109,7 +10249,9 @@
       <c r="I195" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J195" s="5"/>
+      <c r="J195" s="5">
+        <v>42</v>
+      </c>
       <c r="K195" s="5" t="s">
         <v>75</v>
       </c>
@@ -10147,7 +10289,9 @@
       <c r="I196" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J196" s="5"/>
+      <c r="J196" s="5">
+        <v>43</v>
+      </c>
       <c r="K196" s="5" t="s">
         <v>75</v>
       </c>
@@ -10172,24 +10316,38 @@
         <v>194</v>
       </c>
       <c r="B197" s="5">
-        <v>0</v>
-      </c>
-      <c r="C197" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="D197" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
+      <c r="E197" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G197" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H197" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="I197" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J197" s="5"/>
+      <c r="J197" s="5">
+        <v>44</v>
+      </c>
       <c r="K197" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L197" s="5"/>
+      <c r="L197" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="M197" s="5">
         <v>2014</v>
       </c>
@@ -10199,7 +10357,9 @@
       <c r="O197" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P197" s="5"/>
+      <c r="P197" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="Q197" s="5"/>
       <c r="R197" s="5"/>
       <c r="S197" s="5"/>
@@ -10223,7 +10383,9 @@
       <c r="I198" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J198" s="5"/>
+      <c r="J198" s="5">
+        <v>45</v>
+      </c>
       <c r="K198" s="5" t="s">
         <v>75</v>
       </c>
@@ -10261,7 +10423,9 @@
       <c r="I199" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J199" s="5"/>
+      <c r="J199" s="5">
+        <v>46</v>
+      </c>
       <c r="K199" s="5" t="s">
         <v>75</v>
       </c>
@@ -10299,7 +10463,9 @@
       <c r="I200" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J200" s="5"/>
+      <c r="J200" s="5">
+        <v>47</v>
+      </c>
       <c r="K200" s="5" t="s">
         <v>75</v>
       </c>
@@ -10337,7 +10503,9 @@
       <c r="I201" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J201" s="5"/>
+      <c r="J201" s="5">
+        <v>48</v>
+      </c>
       <c r="K201" s="5" t="s">
         <v>75</v>
       </c>
@@ -10375,7 +10543,9 @@
       <c r="I202" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J202" s="5"/>
+      <c r="J202" s="5">
+        <v>49</v>
+      </c>
       <c r="K202" s="5" t="s">
         <v>75</v>
       </c>
@@ -10413,7 +10583,9 @@
       <c r="I203" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J203" s="5"/>
+      <c r="J203" s="5">
+        <v>50</v>
+      </c>
       <c r="K203" s="5" t="s">
         <v>75</v>
       </c>
@@ -10451,7 +10623,9 @@
       <c r="I204" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J204" s="5"/>
+      <c r="J204" s="5">
+        <v>61</v>
+      </c>
       <c r="K204" s="5" t="s">
         <v>75</v>
       </c>
@@ -10489,7 +10663,9 @@
       <c r="I205" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J205" s="5"/>
+      <c r="J205" s="5">
+        <v>52</v>
+      </c>
       <c r="K205" s="5" t="s">
         <v>75</v>
       </c>
@@ -10527,7 +10703,9 @@
       <c r="I206" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J206" s="5"/>
+      <c r="J206" s="5">
+        <v>53</v>
+      </c>
       <c r="K206" s="5" t="s">
         <v>75</v>
       </c>
@@ -10565,7 +10743,9 @@
       <c r="I207" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J207" s="5"/>
+      <c r="J207" s="5">
+        <v>54</v>
+      </c>
       <c r="K207" s="5" t="s">
         <v>75</v>
       </c>
@@ -10603,7 +10783,9 @@
       <c r="I208" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J208" s="5"/>
+      <c r="J208" s="5">
+        <v>55</v>
+      </c>
       <c r="K208" s="5" t="s">
         <v>75</v>
       </c>
@@ -10641,7 +10823,9 @@
       <c r="I209" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J209" s="5"/>
+      <c r="J209" s="5">
+        <v>56</v>
+      </c>
       <c r="K209" s="5" t="s">
         <v>75</v>
       </c>
@@ -10679,7 +10863,9 @@
       <c r="I210" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J210" s="5"/>
+      <c r="J210" s="5">
+        <v>57</v>
+      </c>
       <c r="K210" s="5" t="s">
         <v>75</v>
       </c>
@@ -10717,7 +10903,9 @@
       <c r="I211" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J211" s="5"/>
+      <c r="J211" s="5">
+        <v>58</v>
+      </c>
       <c r="K211" s="5" t="s">
         <v>75</v>
       </c>
@@ -10755,7 +10943,9 @@
       <c r="I212" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J212" s="5"/>
+      <c r="J212" s="5">
+        <v>59</v>
+      </c>
       <c r="K212" s="5" t="s">
         <v>75</v>
       </c>
@@ -10793,7 +10983,9 @@
       <c r="I213" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J213" s="5"/>
+      <c r="J213" s="5">
+        <v>60</v>
+      </c>
       <c r="K213" s="5" t="s">
         <v>75</v>
       </c>
@@ -10831,7 +11023,10 @@
       <c r="I214" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J214" s="5"/>
+      <c r="J214" s="5">
+        <f>ROW()-153</f>
+        <v>61</v>
+      </c>
       <c r="K214" s="5" t="s">
         <v>75</v>
       </c>
@@ -10869,7 +11064,10 @@
       <c r="I215" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J215" s="5"/>
+      <c r="J215" s="5">
+        <f>ROW()-153</f>
+        <v>62</v>
+      </c>
       <c r="K215" s="5" t="s">
         <v>75</v>
       </c>
@@ -10907,7 +11105,10 @@
       <c r="I216" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J216" s="5"/>
+      <c r="J216" s="5">
+        <f t="shared" ref="J216:J233" si="4">ROW()-153</f>
+        <v>63</v>
+      </c>
       <c r="K216" s="5" t="s">
         <v>75</v>
       </c>
@@ -10945,7 +11146,10 @@
       <c r="I217" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J217" s="5"/>
+      <c r="J217" s="5">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
       <c r="K217" s="5" t="s">
         <v>75</v>
       </c>
@@ -10983,7 +11187,10 @@
       <c r="I218" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J218" s="5"/>
+      <c r="J218" s="5">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
       <c r="K218" s="5" t="s">
         <v>75</v>
       </c>
@@ -11021,7 +11228,10 @@
       <c r="I219" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J219" s="5"/>
+      <c r="J219" s="5">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
       <c r="K219" s="5" t="s">
         <v>75</v>
       </c>
@@ -11059,7 +11269,10 @@
       <c r="I220" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J220" s="5"/>
+      <c r="J220" s="5">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
       <c r="K220" s="5" t="s">
         <v>75</v>
       </c>
@@ -11097,7 +11310,10 @@
       <c r="I221" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J221" s="5"/>
+      <c r="J221" s="5">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
       <c r="K221" s="5" t="s">
         <v>75</v>
       </c>
@@ -11135,7 +11351,10 @@
       <c r="I222" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J222" s="5"/>
+      <c r="J222" s="5">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
       <c r="K222" s="5" t="s">
         <v>75</v>
       </c>
@@ -11173,7 +11392,10 @@
       <c r="I223" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J223" s="5"/>
+      <c r="J223" s="5">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
       <c r="K223" s="5" t="s">
         <v>75</v>
       </c>
@@ -11211,7 +11433,10 @@
       <c r="I224" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J224" s="5"/>
+      <c r="J224" s="5">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
       <c r="K224" s="5" t="s">
         <v>75</v>
       </c>
@@ -11249,7 +11474,10 @@
       <c r="I225" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J225" s="5"/>
+      <c r="J225" s="5">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
       <c r="K225" s="5" t="s">
         <v>75</v>
       </c>
@@ -11287,7 +11515,10 @@
       <c r="I226" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J226" s="5"/>
+      <c r="J226" s="5">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
       <c r="K226" s="5" t="s">
         <v>75</v>
       </c>
@@ -11325,7 +11556,10 @@
       <c r="I227" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J227" s="5"/>
+      <c r="J227" s="5">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
       <c r="K227" s="5" t="s">
         <v>75</v>
       </c>
@@ -11363,7 +11597,10 @@
       <c r="I228" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J228" s="5"/>
+      <c r="J228" s="5">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
       <c r="K228" s="5" t="s">
         <v>75</v>
       </c>
@@ -11401,7 +11638,10 @@
       <c r="I229" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J229" s="5"/>
+      <c r="J229" s="5">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
       <c r="K229" s="5" t="s">
         <v>75</v>
       </c>
@@ -11439,7 +11679,10 @@
       <c r="I230" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J230" s="5"/>
+      <c r="J230" s="5">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
       <c r="K230" s="5" t="s">
         <v>75</v>
       </c>
@@ -11477,7 +11720,10 @@
       <c r="I231" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J231" s="5"/>
+      <c r="J231" s="5">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
       <c r="K231" s="5" t="s">
         <v>75</v>
       </c>
@@ -11515,7 +11761,10 @@
       <c r="I232" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J232" s="5"/>
+      <c r="J232" s="5">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
       <c r="K232" s="5" t="s">
         <v>75</v>
       </c>
@@ -11553,7 +11802,10 @@
       <c r="I233" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J233" s="5"/>
+      <c r="J233" s="5">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
       <c r="K233" s="5" t="s">
         <v>75</v>
       </c>
@@ -12562,7 +12814,7 @@
     </row>
     <row r="260" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A260" s="5">
-        <f t="shared" ref="A260:A323" si="4">ROW()-3</f>
+        <f t="shared" ref="A260:A323" si="5">ROW()-3</f>
         <v>257</v>
       </c>
       <c r="B260" s="5">
@@ -12600,7 +12852,7 @@
     </row>
     <row r="261" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A261" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>258</v>
       </c>
       <c r="B261" s="5">
@@ -12638,7 +12890,7 @@
     </row>
     <row r="262" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A262" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>259</v>
       </c>
       <c r="B262" s="5">
@@ -12676,7 +12928,7 @@
     </row>
     <row r="263" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A263" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="B263" s="5">
@@ -12714,7 +12966,7 @@
     </row>
     <row r="264" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A264" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>261</v>
       </c>
       <c r="B264" s="5">
@@ -12752,7 +13004,7 @@
     </row>
     <row r="265" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A265" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>262</v>
       </c>
       <c r="B265" s="5">
@@ -12790,7 +13042,7 @@
     </row>
     <row r="266" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A266" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>263</v>
       </c>
       <c r="B266" s="5">
@@ -12828,7 +13080,7 @@
     </row>
     <row r="267" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A267" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>264</v>
       </c>
       <c r="B267" s="5">
@@ -12866,7 +13118,7 @@
     </row>
     <row r="268" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A268" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>265</v>
       </c>
       <c r="B268" s="5">
@@ -12904,7 +13156,7 @@
     </row>
     <row r="269" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A269" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>266</v>
       </c>
       <c r="B269" s="5">
@@ -12942,7 +13194,7 @@
     </row>
     <row r="270" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A270" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>267</v>
       </c>
       <c r="B270" s="5">
@@ -12980,7 +13232,7 @@
     </row>
     <row r="271" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A271" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>268</v>
       </c>
       <c r="B271" s="5">
@@ -13018,7 +13270,7 @@
     </row>
     <row r="272" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A272" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>269</v>
       </c>
       <c r="B272" s="5">
@@ -13056,7 +13308,7 @@
     </row>
     <row r="273" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A273" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>270</v>
       </c>
       <c r="B273" s="5">
@@ -13094,7 +13346,7 @@
     </row>
     <row r="274" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A274" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>271</v>
       </c>
       <c r="B274" s="5">
@@ -13132,7 +13384,7 @@
     </row>
     <row r="275" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>272</v>
       </c>
       <c r="B275" s="5">
@@ -13170,7 +13422,7 @@
     </row>
     <row r="276" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>273</v>
       </c>
       <c r="B276" s="5">
@@ -13208,7 +13460,7 @@
     </row>
     <row r="277" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>274</v>
       </c>
       <c r="B277" s="5">
@@ -13246,7 +13498,7 @@
     </row>
     <row r="278" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>275</v>
       </c>
       <c r="B278" s="5">
@@ -13284,7 +13536,7 @@
     </row>
     <row r="279" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>276</v>
       </c>
       <c r="B279" s="5">
@@ -13322,7 +13574,7 @@
     </row>
     <row r="280" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>277</v>
       </c>
       <c r="B280" s="5">
@@ -13360,7 +13612,7 @@
     </row>
     <row r="281" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>278</v>
       </c>
       <c r="B281" s="5">
@@ -13398,7 +13650,7 @@
     </row>
     <row r="282" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>279</v>
       </c>
       <c r="B282" s="5">
@@ -13436,7 +13688,7 @@
     </row>
     <row r="283" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>280</v>
       </c>
       <c r="B283" s="5">
@@ -13474,7 +13726,7 @@
     </row>
     <row r="284" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>281</v>
       </c>
       <c r="B284" s="5">
@@ -13512,7 +13764,7 @@
     </row>
     <row r="285" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>282</v>
       </c>
       <c r="B285" s="5">
@@ -13550,7 +13802,7 @@
     </row>
     <row r="286" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>283</v>
       </c>
       <c r="B286" s="5">
@@ -13588,7 +13840,7 @@
     </row>
     <row r="287" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>284</v>
       </c>
       <c r="B287" s="5">
@@ -13626,7 +13878,7 @@
     </row>
     <row r="288" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>285</v>
       </c>
       <c r="B288" s="5">
@@ -13664,7 +13916,7 @@
     </row>
     <row r="289" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A289" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>286</v>
       </c>
       <c r="B289" s="5">
@@ -13702,7 +13954,7 @@
     </row>
     <row r="290" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A290" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>287</v>
       </c>
       <c r="B290" s="5">
@@ -13740,7 +13992,7 @@
     </row>
     <row r="291" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A291" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>288</v>
       </c>
       <c r="B291" s="5">
@@ -13778,7 +14030,7 @@
     </row>
     <row r="292" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A292" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>289</v>
       </c>
       <c r="B292" s="5">
@@ -13816,7 +14068,7 @@
     </row>
     <row r="293" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A293" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
       <c r="B293" s="5">
@@ -13854,7 +14106,7 @@
     </row>
     <row r="294" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A294" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
       <c r="B294" s="5">
@@ -13892,7 +14144,7 @@
     </row>
     <row r="295" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A295" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
       <c r="B295" s="5">
@@ -13930,7 +14182,7 @@
     </row>
     <row r="296" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A296" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>293</v>
       </c>
       <c r="B296" s="5">
@@ -13968,7 +14220,7 @@
     </row>
     <row r="297" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A297" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>294</v>
       </c>
       <c r="B297" s="5">
@@ -14006,7 +14258,7 @@
     </row>
     <row r="298" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A298" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>295</v>
       </c>
       <c r="B298" s="5">
@@ -14044,7 +14296,7 @@
     </row>
     <row r="299" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A299" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>296</v>
       </c>
       <c r="B299" s="5">
@@ -14082,7 +14334,7 @@
     </row>
     <row r="300" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A300" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>297</v>
       </c>
       <c r="B300" s="5">
@@ -14120,7 +14372,7 @@
     </row>
     <row r="301" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A301" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>298</v>
       </c>
       <c r="B301" s="5">
@@ -14158,7 +14410,7 @@
     </row>
     <row r="302" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A302" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>299</v>
       </c>
       <c r="B302" s="5">
@@ -14196,7 +14448,7 @@
     </row>
     <row r="303" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A303" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="B303" s="5">
@@ -14234,7 +14486,7 @@
     </row>
     <row r="304" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A304" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>301</v>
       </c>
       <c r="B304" s="5">
@@ -14272,7 +14524,7 @@
     </row>
     <row r="305" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A305" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>302</v>
       </c>
       <c r="B305" s="5">
@@ -14310,7 +14562,7 @@
     </row>
     <row r="306" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A306" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>303</v>
       </c>
       <c r="B306" s="5">
@@ -14348,7 +14600,7 @@
     </row>
     <row r="307" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A307" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>304</v>
       </c>
       <c r="B307" s="5">
@@ -14386,7 +14638,7 @@
     </row>
     <row r="308" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A308" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>305</v>
       </c>
       <c r="B308" s="5">
@@ -14424,7 +14676,7 @@
     </row>
     <row r="309" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A309" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>306</v>
       </c>
       <c r="B309" s="5">
@@ -14462,7 +14714,7 @@
     </row>
     <row r="310" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A310" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>307</v>
       </c>
       <c r="B310" s="5">
@@ -14500,7 +14752,7 @@
     </row>
     <row r="311" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A311" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>308</v>
       </c>
       <c r="B311" s="5">
@@ -14538,7 +14790,7 @@
     </row>
     <row r="312" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A312" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>309</v>
       </c>
       <c r="B312" s="5">
@@ -14576,7 +14828,7 @@
     </row>
     <row r="313" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A313" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>310</v>
       </c>
       <c r="B313" s="5">
@@ -14614,7 +14866,7 @@
     </row>
     <row r="314" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A314" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>311</v>
       </c>
       <c r="B314" s="5">
@@ -14652,7 +14904,7 @@
     </row>
     <row r="315" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A315" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>312</v>
       </c>
       <c r="B315" s="5">
@@ -14690,7 +14942,7 @@
     </row>
     <row r="316" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A316" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>313</v>
       </c>
       <c r="B316" s="5">
@@ -14728,7 +14980,7 @@
     </row>
     <row r="317" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A317" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>314</v>
       </c>
       <c r="B317" s="5">
@@ -14766,7 +15018,7 @@
     </row>
     <row r="318" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A318" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>315</v>
       </c>
       <c r="B318" s="5">
@@ -14804,7 +15056,7 @@
     </row>
     <row r="319" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A319" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>316</v>
       </c>
       <c r="B319" s="5">
@@ -14842,7 +15094,7 @@
     </row>
     <row r="320" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A320" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>317</v>
       </c>
       <c r="B320" s="5">
@@ -14880,7 +15132,7 @@
     </row>
     <row r="321" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A321" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>318</v>
       </c>
       <c r="B321" s="5">
@@ -14918,7 +15170,7 @@
     </row>
     <row r="322" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A322" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>319</v>
       </c>
       <c r="B322" s="5">
@@ -14956,7 +15208,7 @@
     </row>
     <row r="323" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A323" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>320</v>
       </c>
       <c r="B323" s="5">
@@ -14994,7 +15246,7 @@
     </row>
     <row r="324" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A324" s="5">
-        <f t="shared" ref="A324:A387" si="5">ROW()-3</f>
+        <f t="shared" ref="A324:A387" si="6">ROW()-3</f>
         <v>321</v>
       </c>
       <c r="B324" s="5">
@@ -15032,7 +15284,7 @@
     </row>
     <row r="325" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A325" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>322</v>
       </c>
       <c r="B325" s="5">
@@ -15070,7 +15322,7 @@
     </row>
     <row r="326" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A326" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>323</v>
       </c>
       <c r="B326" s="5">
@@ -15108,7 +15360,7 @@
     </row>
     <row r="327" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A327" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>324</v>
       </c>
       <c r="B327" s="5">
@@ -15146,7 +15398,7 @@
     </row>
     <row r="328" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A328" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>325</v>
       </c>
       <c r="B328" s="5">
@@ -15184,7 +15436,7 @@
     </row>
     <row r="329" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A329" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>326</v>
       </c>
       <c r="B329" s="5">
@@ -15222,7 +15474,7 @@
     </row>
     <row r="330" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A330" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>327</v>
       </c>
       <c r="B330" s="5">
@@ -15260,7 +15512,7 @@
     </row>
     <row r="331" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A331" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>328</v>
       </c>
       <c r="B331" s="5">
@@ -15298,7 +15550,7 @@
     </row>
     <row r="332" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A332" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>329</v>
       </c>
       <c r="B332" s="5">
@@ -15336,7 +15588,7 @@
     </row>
     <row r="333" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A333" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>330</v>
       </c>
       <c r="B333" s="5">
@@ -15374,7 +15626,7 @@
     </row>
     <row r="334" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A334" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>331</v>
       </c>
       <c r="B334" s="5">
@@ -15412,7 +15664,7 @@
     </row>
     <row r="335" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A335" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>332</v>
       </c>
       <c r="B335" s="5">
@@ -15450,7 +15702,7 @@
     </row>
     <row r="336" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A336" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>333</v>
       </c>
       <c r="B336" s="5">
@@ -15488,7 +15740,7 @@
     </row>
     <row r="337" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A337" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>334</v>
       </c>
       <c r="B337" s="5">
@@ -15526,7 +15778,7 @@
     </row>
     <row r="338" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A338" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>335</v>
       </c>
       <c r="B338" s="5">
@@ -15564,7 +15816,7 @@
     </row>
     <row r="339" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A339" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>336</v>
       </c>
       <c r="B339" s="5">
@@ -15602,7 +15854,7 @@
     </row>
     <row r="340" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A340" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>337</v>
       </c>
       <c r="B340" s="5">
@@ -15640,7 +15892,7 @@
     </row>
     <row r="341" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A341" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>338</v>
       </c>
       <c r="B341" s="5">
@@ -15678,7 +15930,7 @@
     </row>
     <row r="342" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A342" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>339</v>
       </c>
       <c r="B342" s="5">
@@ -15716,7 +15968,7 @@
     </row>
     <row r="343" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A343" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>340</v>
       </c>
       <c r="B343" s="5">
@@ -15754,7 +16006,7 @@
     </row>
     <row r="344" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A344" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>341</v>
       </c>
       <c r="B344" s="5">
@@ -15792,7 +16044,7 @@
     </row>
     <row r="345" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A345" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>342</v>
       </c>
       <c r="B345" s="5">
@@ -15830,7 +16082,7 @@
     </row>
     <row r="346" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A346" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>343</v>
       </c>
       <c r="B346" s="5">
@@ -15868,7 +16120,7 @@
     </row>
     <row r="347" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A347" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>344</v>
       </c>
       <c r="B347" s="5">
@@ -15906,7 +16158,7 @@
     </row>
     <row r="348" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A348" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>345</v>
       </c>
       <c r="B348" s="5">
@@ -15944,7 +16196,7 @@
     </row>
     <row r="349" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A349" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>346</v>
       </c>
       <c r="B349" s="5">
@@ -15982,7 +16234,7 @@
     </row>
     <row r="350" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A350" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>347</v>
       </c>
       <c r="B350" s="5">
@@ -16020,7 +16272,7 @@
     </row>
     <row r="351" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A351" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>348</v>
       </c>
       <c r="B351" s="5">
@@ -16058,7 +16310,7 @@
     </row>
     <row r="352" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A352" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>349</v>
       </c>
       <c r="B352" s="5">
@@ -16096,7 +16348,7 @@
     </row>
     <row r="353" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A353" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="B353" s="5">
@@ -16134,7 +16386,7 @@
     </row>
     <row r="354" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A354" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>351</v>
       </c>
       <c r="B354" s="5">
@@ -16172,7 +16424,7 @@
     </row>
     <row r="355" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A355" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>352</v>
       </c>
       <c r="B355" s="5">
@@ -16210,7 +16462,7 @@
     </row>
     <row r="356" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A356" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>353</v>
       </c>
       <c r="B356" s="5">
@@ -16248,7 +16500,7 @@
     </row>
     <row r="357" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A357" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>354</v>
       </c>
       <c r="B357" s="5">
@@ -16286,7 +16538,7 @@
     </row>
     <row r="358" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A358" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>355</v>
       </c>
       <c r="B358" s="5">
@@ -16324,7 +16576,7 @@
     </row>
     <row r="359" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A359" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>356</v>
       </c>
       <c r="B359" s="5">
@@ -16362,7 +16614,7 @@
     </row>
     <row r="360" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A360" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>357</v>
       </c>
       <c r="B360" s="5">
@@ -16400,7 +16652,7 @@
     </row>
     <row r="361" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A361" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>358</v>
       </c>
       <c r="B361" s="5">
@@ -16438,7 +16690,7 @@
     </row>
     <row r="362" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A362" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>359</v>
       </c>
       <c r="B362" s="5">
@@ -16476,7 +16728,7 @@
     </row>
     <row r="363" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A363" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>360</v>
       </c>
       <c r="B363" s="5">
@@ -16514,7 +16766,7 @@
     </row>
     <row r="364" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A364" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>361</v>
       </c>
       <c r="B364" s="5">
@@ -16552,7 +16804,7 @@
     </row>
     <row r="365" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A365" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>362</v>
       </c>
       <c r="B365" s="5">
@@ -16590,7 +16842,7 @@
     </row>
     <row r="366" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A366" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>363</v>
       </c>
       <c r="B366" s="5">
@@ -16628,7 +16880,7 @@
     </row>
     <row r="367" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A367" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>364</v>
       </c>
       <c r="B367" s="5">
@@ -16666,7 +16918,7 @@
     </row>
     <row r="368" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A368" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>365</v>
       </c>
       <c r="B368" s="5">
@@ -16704,7 +16956,7 @@
     </row>
     <row r="369" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A369" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>366</v>
       </c>
       <c r="B369" s="5">
@@ -16742,7 +16994,7 @@
     </row>
     <row r="370" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A370" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>367</v>
       </c>
       <c r="B370" s="5">
@@ -16780,7 +17032,7 @@
     </row>
     <row r="371" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A371" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>368</v>
       </c>
       <c r="B371" s="5">
@@ -16818,7 +17070,7 @@
     </row>
     <row r="372" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A372" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>369</v>
       </c>
       <c r="B372" s="5">
@@ -16856,7 +17108,7 @@
     </row>
     <row r="373" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A373" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>370</v>
       </c>
       <c r="B373" s="5">
@@ -16894,7 +17146,7 @@
     </row>
     <row r="374" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A374" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>371</v>
       </c>
       <c r="B374" s="5">
@@ -16932,7 +17184,7 @@
     </row>
     <row r="375" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A375" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>372</v>
       </c>
       <c r="B375" s="5">
@@ -16970,7 +17222,7 @@
     </row>
     <row r="376" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A376" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>373</v>
       </c>
       <c r="B376" s="5">
@@ -17008,7 +17260,7 @@
     </row>
     <row r="377" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A377" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>374</v>
       </c>
       <c r="B377" s="5">
@@ -17046,7 +17298,7 @@
     </row>
     <row r="378" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A378" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>375</v>
       </c>
       <c r="B378" s="5">
@@ -17082,7 +17334,7 @@
     </row>
     <row r="379" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A379" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>376</v>
       </c>
       <c r="B379" s="5">
@@ -17118,7 +17370,7 @@
     </row>
     <row r="380" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A380" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>377</v>
       </c>
       <c r="B380" s="5">
@@ -17154,7 +17406,7 @@
     </row>
     <row r="381" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A381" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>378</v>
       </c>
       <c r="B381" s="5">
@@ -17190,7 +17442,7 @@
     </row>
     <row r="382" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A382" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>379</v>
       </c>
       <c r="B382" s="5">
@@ -17226,7 +17478,7 @@
     </row>
     <row r="383" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A383" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>380</v>
       </c>
       <c r="B383" s="5">
@@ -17262,7 +17514,7 @@
     </row>
     <row r="384" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A384" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>381</v>
       </c>
       <c r="B384" s="5">
@@ -17298,7 +17550,7 @@
     </row>
     <row r="385" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>382</v>
       </c>
       <c r="B385" s="5">
@@ -17334,7 +17586,7 @@
     </row>
     <row r="386" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A386" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>383</v>
       </c>
       <c r="B386" s="5">
@@ -17370,7 +17622,7 @@
     </row>
     <row r="387" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A387" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>384</v>
       </c>
       <c r="B387" s="5">
@@ -17406,7 +17658,7 @@
     </row>
     <row r="388" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A388" s="5">
-        <f t="shared" ref="A388:A625" si="6">ROW()-3</f>
+        <f t="shared" ref="A388:A625" si="7">ROW()-3</f>
         <v>385</v>
       </c>
       <c r="B388" s="5">
@@ -17442,7 +17694,7 @@
     </row>
     <row r="389" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A389" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>386</v>
       </c>
       <c r="B389" s="5">
@@ -17478,7 +17730,7 @@
     </row>
     <row r="390" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A390" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>387</v>
       </c>
       <c r="B390" s="5">
@@ -17514,7 +17766,7 @@
     </row>
     <row r="391" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A391" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>388</v>
       </c>
       <c r="B391" s="5">
@@ -17550,7 +17802,7 @@
     </row>
     <row r="392" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A392" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>389</v>
       </c>
       <c r="B392" s="5">
@@ -17586,7 +17838,7 @@
     </row>
     <row r="393" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A393" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>390</v>
       </c>
       <c r="B393" s="5">
@@ -17622,7 +17874,7 @@
     </row>
     <row r="394" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A394" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>391</v>
       </c>
       <c r="B394" s="5">
@@ -17658,7 +17910,7 @@
     </row>
     <row r="395" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A395" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>392</v>
       </c>
       <c r="B395" s="5">
@@ -17694,7 +17946,7 @@
     </row>
     <row r="396" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A396" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>393</v>
       </c>
       <c r="B396" s="5">
@@ -17730,7 +17982,7 @@
     </row>
     <row r="397" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A397" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>394</v>
       </c>
       <c r="B397" s="5">
@@ -17766,7 +18018,7 @@
     </row>
     <row r="398" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A398" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>395</v>
       </c>
       <c r="B398" s="5">
@@ -17802,7 +18054,7 @@
     </row>
     <row r="399" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A399" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>396</v>
       </c>
       <c r="B399" s="5">
@@ -17838,7 +18090,7 @@
     </row>
     <row r="400" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A400" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>397</v>
       </c>
       <c r="B400" s="5">
@@ -17874,7 +18126,7 @@
     </row>
     <row r="401" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>398</v>
       </c>
       <c r="B401" s="5">
@@ -17910,7 +18162,7 @@
     </row>
     <row r="402" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>399</v>
       </c>
       <c r="B402" s="5">
@@ -17946,7 +18198,7 @@
     </row>
     <row r="403" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="B403" s="5">
@@ -17982,7 +18234,7 @@
     </row>
     <row r="404" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>401</v>
       </c>
       <c r="B404" s="5">
@@ -18018,7 +18270,7 @@
     </row>
     <row r="405" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>402</v>
       </c>
       <c r="B405" s="5">
@@ -18054,7 +18306,7 @@
     </row>
     <row r="406" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>403</v>
       </c>
       <c r="B406" s="5">
@@ -18090,7 +18342,7 @@
     </row>
     <row r="407" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>404</v>
       </c>
       <c r="B407" s="5">
@@ -18126,7 +18378,7 @@
     </row>
     <row r="408" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>405</v>
       </c>
       <c r="B408" s="5">
@@ -18162,7 +18414,7 @@
     </row>
     <row r="409" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>406</v>
       </c>
       <c r="B409" s="5">
@@ -18198,7 +18450,7 @@
     </row>
     <row r="410" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A410" s="14">
-        <f t="shared" ref="A410:A421" si="7">ROW()-3</f>
+        <f t="shared" ref="A410:A421" si="8">ROW()-3</f>
         <v>407</v>
       </c>
       <c r="B410" s="5">
@@ -18234,7 +18486,7 @@
     </row>
     <row r="411" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A411" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>408</v>
       </c>
       <c r="B411" s="5">
@@ -18270,7 +18522,7 @@
     </row>
     <row r="412" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A412" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>409</v>
       </c>
       <c r="B412" s="5">
@@ -18306,7 +18558,7 @@
     </row>
     <row r="413" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A413" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>410</v>
       </c>
       <c r="B413" s="5">
@@ -18342,7 +18594,7 @@
     </row>
     <row r="414" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A414" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>411</v>
       </c>
       <c r="B414" s="5">
@@ -18378,7 +18630,7 @@
     </row>
     <row r="415" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A415" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>412</v>
       </c>
       <c r="B415" s="5">
@@ -18414,7 +18666,7 @@
     </row>
     <row r="416" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A416" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>413</v>
       </c>
       <c r="B416" s="5">
@@ -18450,7 +18702,7 @@
     </row>
     <row r="417" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A417" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>414</v>
       </c>
       <c r="B417" s="5">
@@ -18486,7 +18738,7 @@
     </row>
     <row r="418" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A418" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>415</v>
       </c>
       <c r="B418" s="5">
@@ -18522,7 +18774,7 @@
     </row>
     <row r="419" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A419" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>416</v>
       </c>
       <c r="B419" s="5">
@@ -18558,7 +18810,7 @@
     </row>
     <row r="420" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A420" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>417</v>
       </c>
       <c r="B420" s="5">
@@ -18594,7 +18846,7 @@
     </row>
     <row r="421" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A421" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>418</v>
       </c>
       <c r="B421" s="5">
@@ -18630,7 +18882,7 @@
     </row>
     <row r="422" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A422" s="14">
-        <f t="shared" ref="A422:A438" si="8">ROW()-3</f>
+        <f t="shared" ref="A422:A438" si="9">ROW()-3</f>
         <v>419</v>
       </c>
       <c r="B422" s="5">
@@ -18666,7 +18918,7 @@
     </row>
     <row r="423" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A423" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>420</v>
       </c>
       <c r="B423" s="5">
@@ -18702,7 +18954,7 @@
     </row>
     <row r="424" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A424" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>421</v>
       </c>
       <c r="B424" s="5">
@@ -18738,7 +18990,7 @@
     </row>
     <row r="425" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A425" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>422</v>
       </c>
       <c r="B425" s="5">
@@ -18774,7 +19026,7 @@
     </row>
     <row r="426" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A426" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>423</v>
       </c>
       <c r="B426" s="5">
@@ -18810,7 +19062,7 @@
     </row>
     <row r="427" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A427" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>424</v>
       </c>
       <c r="B427" s="5">
@@ -18846,7 +19098,7 @@
     </row>
     <row r="428" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A428" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>425</v>
       </c>
       <c r="B428" s="5">
@@ -18884,7 +19136,7 @@
     </row>
     <row r="429" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A429" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>426</v>
       </c>
       <c r="B429" s="5">
@@ -18922,7 +19174,7 @@
     </row>
     <row r="430" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A430" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>427</v>
       </c>
       <c r="B430" s="5">
@@ -18960,7 +19212,7 @@
     </row>
     <row r="431" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A431" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>428</v>
       </c>
       <c r="B431" s="5">
@@ -18998,7 +19250,7 @@
     </row>
     <row r="432" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A432" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>429</v>
       </c>
       <c r="B432" s="5">
@@ -19036,7 +19288,7 @@
     </row>
     <row r="433" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A433" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>430</v>
       </c>
       <c r="B433" s="5">
@@ -19074,7 +19326,7 @@
     </row>
     <row r="434" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A434" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>431</v>
       </c>
       <c r="B434" s="5">
@@ -19112,7 +19364,7 @@
     </row>
     <row r="435" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A435" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>432</v>
       </c>
       <c r="B435" s="5">
@@ -19150,7 +19402,7 @@
     </row>
     <row r="436" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A436" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>433</v>
       </c>
       <c r="B436" s="5">
@@ -19188,7 +19440,7 @@
     </row>
     <row r="437" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A437" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>434</v>
       </c>
       <c r="B437" s="5">
@@ -19226,7 +19478,7 @@
     </row>
     <row r="438" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A438" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>435</v>
       </c>
       <c r="B438" s="5">
@@ -19264,7 +19516,7 @@
     </row>
     <row r="439" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A439" s="14">
-        <f t="shared" ref="A439:A455" si="9">ROW()-3</f>
+        <f t="shared" ref="A439:A455" si="10">ROW()-3</f>
         <v>436</v>
       </c>
       <c r="B439" s="5">
@@ -19302,7 +19554,7 @@
     </row>
     <row r="440" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A440" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>437</v>
       </c>
       <c r="B440" s="5">
@@ -19340,7 +19592,7 @@
     </row>
     <row r="441" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A441" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>438</v>
       </c>
       <c r="B441" s="5">
@@ -19378,7 +19630,7 @@
     </row>
     <row r="442" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A442" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>439</v>
       </c>
       <c r="B442" s="5">
@@ -19416,7 +19668,7 @@
     </row>
     <row r="443" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A443" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>440</v>
       </c>
       <c r="B443" s="5">
@@ -19454,7 +19706,7 @@
     </row>
     <row r="444" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A444" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>441</v>
       </c>
       <c r="B444" s="5">
@@ -19492,7 +19744,7 @@
     </row>
     <row r="445" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A445" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>442</v>
       </c>
       <c r="B445" s="5">
@@ -19530,7 +19782,7 @@
     </row>
     <row r="446" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A446" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>443</v>
       </c>
       <c r="B446" s="5">
@@ -19568,7 +19820,7 @@
     </row>
     <row r="447" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A447" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>444</v>
       </c>
       <c r="B447" s="5">
@@ -19606,7 +19858,7 @@
     </row>
     <row r="448" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A448" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>445</v>
       </c>
       <c r="B448" s="5">
@@ -19644,7 +19896,7 @@
     </row>
     <row r="449" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A449" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>446</v>
       </c>
       <c r="B449" s="5">
@@ -19682,7 +19934,7 @@
     </row>
     <row r="450" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A450" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>447</v>
       </c>
       <c r="B450" s="5">
@@ -19720,7 +19972,7 @@
     </row>
     <row r="451" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A451" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>448</v>
       </c>
       <c r="B451" s="5">
@@ -19758,7 +20010,7 @@
     </row>
     <row r="452" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A452" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>449</v>
       </c>
       <c r="B452" s="5">
@@ -19796,7 +20048,7 @@
     </row>
     <row r="453" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A453" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>450</v>
       </c>
       <c r="B453" s="5">
@@ -19834,7 +20086,7 @@
     </row>
     <row r="454" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A454" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>451</v>
       </c>
       <c r="B454" s="5">
@@ -19872,7 +20124,7 @@
     </row>
     <row r="455" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A455" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>452</v>
       </c>
       <c r="B455" s="5">
@@ -19910,7 +20162,7 @@
     </row>
     <row r="456" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A456" s="14">
-        <f t="shared" ref="A456:A487" si="10">ROW()-3</f>
+        <f t="shared" ref="A456:A487" si="11">ROW()-3</f>
         <v>453</v>
       </c>
       <c r="B456" s="5">
@@ -19948,7 +20200,7 @@
     </row>
     <row r="457" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A457" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>454</v>
       </c>
       <c r="B457" s="5">
@@ -19986,7 +20238,7 @@
     </row>
     <row r="458" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A458" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>455</v>
       </c>
       <c r="B458" s="5">
@@ -20024,7 +20276,7 @@
     </row>
     <row r="459" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A459" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>456</v>
       </c>
       <c r="B459" s="5">
@@ -20062,7 +20314,7 @@
     </row>
     <row r="460" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A460" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>457</v>
       </c>
       <c r="B460" s="5">
@@ -20100,7 +20352,7 @@
     </row>
     <row r="461" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A461" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>458</v>
       </c>
       <c r="B461" s="5">
@@ -20138,7 +20390,7 @@
     </row>
     <row r="462" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A462" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>459</v>
       </c>
       <c r="B462" s="5">
@@ -20176,7 +20428,7 @@
     </row>
     <row r="463" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A463" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>460</v>
       </c>
       <c r="B463" s="5">
@@ -20214,7 +20466,7 @@
     </row>
     <row r="464" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A464" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>461</v>
       </c>
       <c r="B464" s="5">
@@ -20252,7 +20504,7 @@
     </row>
     <row r="465" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A465" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>462</v>
       </c>
       <c r="B465" s="5">
@@ -20290,7 +20542,7 @@
     </row>
     <row r="466" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A466" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>463</v>
       </c>
       <c r="B466" s="5">
@@ -20328,7 +20580,7 @@
     </row>
     <row r="467" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A467" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>464</v>
       </c>
       <c r="B467" s="5">
@@ -20366,7 +20618,7 @@
     </row>
     <row r="468" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A468" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>465</v>
       </c>
       <c r="B468" s="5">
@@ -20404,7 +20656,7 @@
     </row>
     <row r="469" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A469" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>466</v>
       </c>
       <c r="B469" s="5">
@@ -20442,7 +20694,7 @@
     </row>
     <row r="470" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A470" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>467</v>
       </c>
       <c r="B470" s="5">
@@ -20480,7 +20732,7 @@
     </row>
     <row r="471" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A471" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>468</v>
       </c>
       <c r="B471" s="5">
@@ -20518,7 +20770,7 @@
     </row>
     <row r="472" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A472" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>469</v>
       </c>
       <c r="B472" s="5">
@@ -20556,7 +20808,7 @@
     </row>
     <row r="473" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A473" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>470</v>
       </c>
       <c r="B473" s="5">
@@ -20594,7 +20846,7 @@
     </row>
     <row r="474" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A474" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>471</v>
       </c>
       <c r="B474" s="5">
@@ -20632,7 +20884,7 @@
     </row>
     <row r="475" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A475" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>472</v>
       </c>
       <c r="B475" s="5">
@@ -20670,7 +20922,7 @@
     </row>
     <row r="476" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A476" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>473</v>
       </c>
       <c r="B476" s="5">
@@ -20708,7 +20960,7 @@
     </row>
     <row r="477" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A477" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>474</v>
       </c>
       <c r="B477" s="5">
@@ -20746,7 +20998,7 @@
     </row>
     <row r="478" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A478" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>475</v>
       </c>
       <c r="B478" s="5">
@@ -20784,7 +21036,7 @@
     </row>
     <row r="479" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A479" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>476</v>
       </c>
       <c r="B479" s="5">
@@ -20822,7 +21074,7 @@
     </row>
     <row r="480" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A480" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>477</v>
       </c>
       <c r="B480" s="5">
@@ -20860,7 +21112,7 @@
     </row>
     <row r="481" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A481" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>478</v>
       </c>
       <c r="B481" s="5">
@@ -20898,7 +21150,7 @@
     </row>
     <row r="482" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A482" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>479</v>
       </c>
       <c r="B482" s="5">
@@ -20936,7 +21188,7 @@
     </row>
     <row r="483" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A483" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>480</v>
       </c>
       <c r="B483" s="5">
@@ -20974,7 +21226,7 @@
     </row>
     <row r="484" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A484" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>481</v>
       </c>
       <c r="B484" s="5">
@@ -21012,7 +21264,7 @@
     </row>
     <row r="485" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A485" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>482</v>
       </c>
       <c r="B485" s="5">
@@ -21050,7 +21302,7 @@
     </row>
     <row r="486" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A486" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>483</v>
       </c>
       <c r="B486" s="5">
@@ -21088,7 +21340,7 @@
     </row>
     <row r="487" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A487" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>484</v>
       </c>
       <c r="B487" s="5">
@@ -21126,7 +21378,7 @@
     </row>
     <row r="488" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A488" s="14">
-        <f t="shared" ref="A488:A624" si="11">ROW()-3</f>
+        <f t="shared" ref="A488:A624" si="12">ROW()-3</f>
         <v>485</v>
       </c>
       <c r="B488" s="5">
@@ -21164,7 +21416,7 @@
     </row>
     <row r="489" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A489" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>486</v>
       </c>
       <c r="B489" s="5">
@@ -21202,7 +21454,7 @@
     </row>
     <row r="490" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A490" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>487</v>
       </c>
       <c r="B490" s="5">
@@ -21240,7 +21492,7 @@
     </row>
     <row r="491" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A491" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>488</v>
       </c>
       <c r="B491" s="5">
@@ -21278,7 +21530,7 @@
     </row>
     <row r="492" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A492" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>489</v>
       </c>
       <c r="B492" s="5">
@@ -21316,7 +21568,7 @@
     </row>
     <row r="493" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A493" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>490</v>
       </c>
       <c r="B493" s="5">
@@ -21354,7 +21606,7 @@
     </row>
     <row r="494" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A494" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>491</v>
       </c>
       <c r="B494" s="5">
@@ -21392,7 +21644,7 @@
     </row>
     <row r="495" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A495" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>492</v>
       </c>
       <c r="B495" s="5">
@@ -21430,7 +21682,7 @@
     </row>
     <row r="496" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A496" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>493</v>
       </c>
       <c r="B496" s="5">
@@ -21468,7 +21720,7 @@
     </row>
     <row r="497" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A497" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>494</v>
       </c>
       <c r="B497" s="5">
@@ -21506,7 +21758,7 @@
     </row>
     <row r="498" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A498" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>495</v>
       </c>
       <c r="B498" s="5">
@@ -21544,7 +21796,7 @@
     </row>
     <row r="499" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A499" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>496</v>
       </c>
       <c r="B499" s="5">
@@ -21582,7 +21834,7 @@
     </row>
     <row r="500" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A500" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>497</v>
       </c>
       <c r="B500" s="5">
@@ -21620,7 +21872,7 @@
     </row>
     <row r="501" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A501" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>498</v>
       </c>
       <c r="B501" s="5">
@@ -21658,7 +21910,7 @@
     </row>
     <row r="502" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A502" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>499</v>
       </c>
       <c r="B502" s="5">
@@ -21696,7 +21948,7 @@
     </row>
     <row r="503" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A503" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>500</v>
       </c>
       <c r="B503" s="5">
@@ -21734,7 +21986,7 @@
     </row>
     <row r="504" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A504" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>501</v>
       </c>
       <c r="B504" s="5">
@@ -21772,7 +22024,7 @@
     </row>
     <row r="505" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A505" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>502</v>
       </c>
       <c r="B505" s="5">
@@ -21810,7 +22062,7 @@
     </row>
     <row r="506" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A506" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>503</v>
       </c>
       <c r="B506" s="5">
@@ -21848,7 +22100,7 @@
     </row>
     <row r="507" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A507" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>504</v>
       </c>
       <c r="B507" s="5">
@@ -21886,7 +22138,7 @@
     </row>
     <row r="508" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A508" s="12">
-        <f t="shared" ref="A508:A539" si="12">ROW()-3</f>
+        <f t="shared" ref="A508:A539" si="13">ROW()-3</f>
         <v>505</v>
       </c>
       <c r="B508" s="5">
@@ -21924,7 +22176,7 @@
     </row>
     <row r="509" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A509" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>506</v>
       </c>
       <c r="B509" s="5">
@@ -21962,7 +22214,7 @@
     </row>
     <row r="510" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A510" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>507</v>
       </c>
       <c r="B510" s="5">
@@ -22000,7 +22252,7 @@
     </row>
     <row r="511" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A511" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>508</v>
       </c>
       <c r="B511" s="5">
@@ -22038,7 +22290,7 @@
     </row>
     <row r="512" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A512" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>509</v>
       </c>
       <c r="B512" s="5">
@@ -22076,7 +22328,7 @@
     </row>
     <row r="513" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A513" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>510</v>
       </c>
       <c r="B513" s="5">
@@ -22114,7 +22366,7 @@
     </row>
     <row r="514" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A514" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>511</v>
       </c>
       <c r="B514" s="5">
@@ -22152,7 +22404,7 @@
     </row>
     <row r="515" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A515" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>512</v>
       </c>
       <c r="B515" s="5">
@@ -22190,7 +22442,7 @@
     </row>
     <row r="516" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A516" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>513</v>
       </c>
       <c r="B516" s="5">
@@ -22228,7 +22480,7 @@
     </row>
     <row r="517" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A517" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>514</v>
       </c>
       <c r="B517" s="5">
@@ -22266,7 +22518,7 @@
     </row>
     <row r="518" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A518" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>515</v>
       </c>
       <c r="B518" s="5">
@@ -22304,7 +22556,7 @@
     </row>
     <row r="519" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A519" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>516</v>
       </c>
       <c r="B519" s="5">
@@ -22342,7 +22594,7 @@
     </row>
     <row r="520" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A520" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>517</v>
       </c>
       <c r="B520" s="5">
@@ -22380,7 +22632,7 @@
     </row>
     <row r="521" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A521" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>518</v>
       </c>
       <c r="B521" s="5">
@@ -22418,7 +22670,7 @@
     </row>
     <row r="522" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A522" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>519</v>
       </c>
       <c r="B522" s="5">
@@ -22456,7 +22708,7 @@
     </row>
     <row r="523" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A523" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>520</v>
       </c>
       <c r="B523" s="5">
@@ -22494,7 +22746,7 @@
     </row>
     <row r="524" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A524" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>521</v>
       </c>
       <c r="B524" s="5">
@@ -22532,7 +22784,7 @@
     </row>
     <row r="525" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A525" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>522</v>
       </c>
       <c r="B525" s="5">
@@ -22570,7 +22822,7 @@
     </row>
     <row r="526" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A526" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>523</v>
       </c>
       <c r="B526" s="5">
@@ -22608,7 +22860,7 @@
     </row>
     <row r="527" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A527" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>524</v>
       </c>
       <c r="B527" s="5">
@@ -22646,7 +22898,7 @@
     </row>
     <row r="528" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A528" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>525</v>
       </c>
       <c r="B528" s="5">
@@ -22684,7 +22936,7 @@
     </row>
     <row r="529" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A529" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>526</v>
       </c>
       <c r="B529" s="5">
@@ -22722,7 +22974,7 @@
     </row>
     <row r="530" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A530" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>527</v>
       </c>
       <c r="B530" s="5">
@@ -22760,7 +23012,7 @@
     </row>
     <row r="531" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A531" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>528</v>
       </c>
       <c r="B531" s="5">
@@ -22798,7 +23050,7 @@
     </row>
     <row r="532" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A532" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>529</v>
       </c>
       <c r="B532" s="5">
@@ -22836,7 +23088,7 @@
     </row>
     <row r="533" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A533" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>530</v>
       </c>
       <c r="B533" s="5">
@@ -22874,7 +23126,7 @@
     </row>
     <row r="534" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A534" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>531</v>
       </c>
       <c r="B534" s="5">
@@ -22912,7 +23164,7 @@
     </row>
     <row r="535" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A535" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>532</v>
       </c>
       <c r="B535" s="5">
@@ -22950,7 +23202,7 @@
     </row>
     <row r="536" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A536" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>533</v>
       </c>
       <c r="B536" s="5">
@@ -22988,7 +23240,7 @@
     </row>
     <row r="537" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A537" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>534</v>
       </c>
       <c r="B537" s="5">
@@ -23026,7 +23278,7 @@
     </row>
     <row r="538" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A538" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>535</v>
       </c>
       <c r="B538" s="5">
@@ -23064,7 +23316,7 @@
     </row>
     <row r="539" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A539" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>536</v>
       </c>
       <c r="B539" s="5">
@@ -23102,7 +23354,7 @@
     </row>
     <row r="540" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A540" s="12">
-        <f t="shared" ref="A540:A571" si="13">ROW()-3</f>
+        <f t="shared" ref="A540:A571" si="14">ROW()-3</f>
         <v>537</v>
       </c>
       <c r="B540" s="5">
@@ -23140,7 +23392,7 @@
     </row>
     <row r="541" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A541" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>538</v>
       </c>
       <c r="B541" s="5">
@@ -23178,7 +23430,7 @@
     </row>
     <row r="542" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A542" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>539</v>
       </c>
       <c r="B542" s="5">
@@ -23216,7 +23468,7 @@
     </row>
     <row r="543" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A543" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>540</v>
       </c>
       <c r="B543" s="5">
@@ -23254,7 +23506,7 @@
     </row>
     <row r="544" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A544" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>541</v>
       </c>
       <c r="B544" s="5">
@@ -23292,7 +23544,7 @@
     </row>
     <row r="545" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A545" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>542</v>
       </c>
       <c r="B545" s="5">
@@ -23330,7 +23582,7 @@
     </row>
     <row r="546" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A546" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>543</v>
       </c>
       <c r="B546" s="5">
@@ -23368,7 +23620,7 @@
     </row>
     <row r="547" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A547" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>544</v>
       </c>
       <c r="B547" s="5">
@@ -23406,7 +23658,7 @@
     </row>
     <row r="548" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A548" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>545</v>
       </c>
       <c r="B548" s="5">
@@ -23444,7 +23696,7 @@
     </row>
     <row r="549" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A549" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>546</v>
       </c>
       <c r="B549" s="5">
@@ -23482,7 +23734,7 @@
     </row>
     <row r="550" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A550" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>547</v>
       </c>
       <c r="B550" s="5">
@@ -23520,7 +23772,7 @@
     </row>
     <row r="551" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A551" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>548</v>
       </c>
       <c r="B551" s="5">
@@ -23558,7 +23810,7 @@
     </row>
     <row r="552" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A552" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>549</v>
       </c>
       <c r="B552" s="5">
@@ -23584,7 +23836,7 @@
     </row>
     <row r="553" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A553" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>550</v>
       </c>
       <c r="B553" s="5">
@@ -23610,7 +23862,7 @@
     </row>
     <row r="554" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A554" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>551</v>
       </c>
       <c r="B554" s="5">
@@ -23636,7 +23888,7 @@
     </row>
     <row r="555" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A555" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>552</v>
       </c>
       <c r="B555" s="5">
@@ -23662,7 +23914,7 @@
     </row>
     <row r="556" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A556" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>553</v>
       </c>
       <c r="B556" s="5">
@@ -23688,7 +23940,7 @@
     </row>
     <row r="557" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A557" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>554</v>
       </c>
       <c r="B557" s="5">
@@ -23714,7 +23966,7 @@
     </row>
     <row r="558" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A558" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>555</v>
       </c>
       <c r="B558" s="5">
@@ -23740,7 +23992,7 @@
     </row>
     <row r="559" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A559" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>556</v>
       </c>
       <c r="B559" s="5">
@@ -23766,7 +24018,7 @@
     </row>
     <row r="560" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A560" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>557</v>
       </c>
       <c r="B560" s="5">
@@ -23792,7 +24044,7 @@
     </row>
     <row r="561" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A561" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>558</v>
       </c>
       <c r="B561" s="5">
@@ -23818,7 +24070,7 @@
     </row>
     <row r="562" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A562" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>559</v>
       </c>
       <c r="B562" s="5">
@@ -23844,7 +24096,7 @@
     </row>
     <row r="563" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A563" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>560</v>
       </c>
       <c r="B563" s="5">
@@ -23870,7 +24122,7 @@
     </row>
     <row r="564" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A564" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>561</v>
       </c>
       <c r="B564" s="5">
@@ -23896,7 +24148,7 @@
     </row>
     <row r="565" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A565" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>562</v>
       </c>
       <c r="B565" s="5">
@@ -23922,7 +24174,7 @@
     </row>
     <row r="566" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A566" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>563</v>
       </c>
       <c r="B566" s="5">
@@ -23948,7 +24200,7 @@
     </row>
     <row r="567" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A567" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>564</v>
       </c>
       <c r="B567" s="5">
@@ -23974,7 +24226,7 @@
     </row>
     <row r="568" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A568" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>565</v>
       </c>
       <c r="B568" s="5">
@@ -24000,7 +24252,7 @@
     </row>
     <row r="569" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A569" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>566</v>
       </c>
       <c r="B569" s="5">
@@ -24026,7 +24278,7 @@
     </row>
     <row r="570" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A570" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>567</v>
       </c>
       <c r="B570" s="5">
@@ -24052,7 +24304,7 @@
     </row>
     <row r="571" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A571" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>568</v>
       </c>
       <c r="B571" s="5">
@@ -24078,7 +24330,7 @@
     </row>
     <row r="572" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A572" s="12">
-        <f t="shared" ref="A572:A603" si="14">ROW()-3</f>
+        <f t="shared" ref="A572:A603" si="15">ROW()-3</f>
         <v>569</v>
       </c>
       <c r="B572" s="5">
@@ -24104,7 +24356,7 @@
     </row>
     <row r="573" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A573" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>570</v>
       </c>
       <c r="B573" s="5">
@@ -24130,7 +24382,7 @@
     </row>
     <row r="574" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A574" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>571</v>
       </c>
       <c r="B574" s="5">
@@ -24156,7 +24408,7 @@
     </row>
     <row r="575" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A575" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>572</v>
       </c>
       <c r="B575" s="5">
@@ -24182,7 +24434,7 @@
     </row>
     <row r="576" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A576" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>573</v>
       </c>
       <c r="B576" s="5">
@@ -24208,7 +24460,7 @@
     </row>
     <row r="577" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A577" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>574</v>
       </c>
       <c r="B577" s="5">
@@ -24234,7 +24486,7 @@
     </row>
     <row r="578" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A578" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>575</v>
       </c>
       <c r="B578" s="5">
@@ -24260,7 +24512,7 @@
     </row>
     <row r="579" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A579" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>576</v>
       </c>
       <c r="B579" s="5">
@@ -24286,7 +24538,7 @@
     </row>
     <row r="580" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A580" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>577</v>
       </c>
       <c r="B580" s="5">
@@ -24312,7 +24564,7 @@
     </row>
     <row r="581" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A581" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>578</v>
       </c>
       <c r="B581" s="5">
@@ -24338,7 +24590,7 @@
     </row>
     <row r="582" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A582" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>579</v>
       </c>
       <c r="B582" s="5">
@@ -24364,7 +24616,7 @@
     </row>
     <row r="583" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A583" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>580</v>
       </c>
       <c r="B583" s="5">
@@ -24390,7 +24642,7 @@
     </row>
     <row r="584" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A584" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>581</v>
       </c>
       <c r="B584" s="5">
@@ -24416,7 +24668,7 @@
     </row>
     <row r="585" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A585" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>582</v>
       </c>
       <c r="B585" s="5">
@@ -24442,7 +24694,7 @@
     </row>
     <row r="586" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A586" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>583</v>
       </c>
       <c r="B586" s="5">
@@ -24468,7 +24720,7 @@
     </row>
     <row r="587" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A587" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>584</v>
       </c>
       <c r="B587" s="5">
@@ -24494,7 +24746,7 @@
     </row>
     <row r="588" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A588" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>585</v>
       </c>
       <c r="B588" s="5">
@@ -24520,7 +24772,7 @@
     </row>
     <row r="589" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A589" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>586</v>
       </c>
       <c r="B589" s="5">
@@ -24546,7 +24798,7 @@
     </row>
     <row r="590" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A590" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>587</v>
       </c>
       <c r="B590" s="5">
@@ -24572,7 +24824,7 @@
     </row>
     <row r="591" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A591" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>588</v>
       </c>
       <c r="B591" s="5">
@@ -24598,7 +24850,7 @@
     </row>
     <row r="592" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A592" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>589</v>
       </c>
       <c r="B592" s="5">
@@ -24624,7 +24876,7 @@
     </row>
     <row r="593" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A593" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>590</v>
       </c>
       <c r="B593" s="5">
@@ -24650,7 +24902,7 @@
     </row>
     <row r="594" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A594" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>591</v>
       </c>
       <c r="B594" s="5">
@@ -24676,7 +24928,7 @@
     </row>
     <row r="595" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A595" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>592</v>
       </c>
       <c r="B595" s="5">
@@ -24702,7 +24954,7 @@
     </row>
     <row r="596" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A596" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>593</v>
       </c>
       <c r="B596" s="5">
@@ -24728,7 +24980,7 @@
     </row>
     <row r="597" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A597" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>594</v>
       </c>
       <c r="B597" s="5">
@@ -24754,7 +25006,7 @@
     </row>
     <row r="598" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A598" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>595</v>
       </c>
       <c r="B598" s="5">
@@ -24780,7 +25032,7 @@
     </row>
     <row r="599" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A599" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>596</v>
       </c>
       <c r="B599" s="5">
@@ -24806,7 +25058,7 @@
     </row>
     <row r="600" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A600" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>597</v>
       </c>
       <c r="B600" s="5">
@@ -24832,7 +25084,7 @@
     </row>
     <row r="601" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A601" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>598</v>
       </c>
       <c r="B601" s="5">
@@ -24858,7 +25110,7 @@
     </row>
     <row r="602" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A602" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>599</v>
       </c>
       <c r="B602" s="5">
@@ -24884,7 +25136,7 @@
     </row>
     <row r="603" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A603" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>600</v>
       </c>
       <c r="B603" s="5">
@@ -24910,7 +25162,7 @@
     </row>
     <row r="604" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A604" s="12">
-        <f t="shared" ref="A604:A622" si="15">ROW()-3</f>
+        <f t="shared" ref="A604:A622" si="16">ROW()-3</f>
         <v>601</v>
       </c>
       <c r="B604" s="5">
@@ -24936,7 +25188,7 @@
     </row>
     <row r="605" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A605" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>602</v>
       </c>
       <c r="B605" s="5">
@@ -24962,7 +25214,7 @@
     </row>
     <row r="606" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A606" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>603</v>
       </c>
       <c r="B606" s="5">
@@ -24988,7 +25240,7 @@
     </row>
     <row r="607" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A607" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>604</v>
       </c>
       <c r="B607" s="5">
@@ -25014,7 +25266,7 @@
     </row>
     <row r="608" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A608" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>605</v>
       </c>
       <c r="B608" s="5">
@@ -25040,7 +25292,7 @@
     </row>
     <row r="609" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A609" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>606</v>
       </c>
       <c r="B609" s="5">
@@ -25066,7 +25318,7 @@
     </row>
     <row r="610" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A610" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>607</v>
       </c>
       <c r="B610" s="5">
@@ -25092,7 +25344,7 @@
     </row>
     <row r="611" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A611" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>608</v>
       </c>
       <c r="B611" s="5">
@@ -25118,7 +25370,7 @@
     </row>
     <row r="612" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A612" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>609</v>
       </c>
       <c r="B612" s="5">
@@ -25144,7 +25396,7 @@
     </row>
     <row r="613" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A613" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>610</v>
       </c>
       <c r="B613" s="5">
@@ -25170,7 +25422,7 @@
     </row>
     <row r="614" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A614" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>611</v>
       </c>
       <c r="B614" s="5">
@@ -25196,7 +25448,7 @@
     </row>
     <row r="615" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A615" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>612</v>
       </c>
       <c r="B615" s="5">
@@ -25222,7 +25474,7 @@
     </row>
     <row r="616" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A616" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>613</v>
       </c>
       <c r="B616" s="5">
@@ -25248,7 +25500,7 @@
     </row>
     <row r="617" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A617" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>614</v>
       </c>
       <c r="B617" s="5">
@@ -25274,7 +25526,7 @@
     </row>
     <row r="618" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A618" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>615</v>
       </c>
       <c r="B618" s="5">
@@ -25300,7 +25552,7 @@
     </row>
     <row r="619" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A619" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>616</v>
       </c>
       <c r="B619" s="5">
@@ -25326,7 +25578,7 @@
     </row>
     <row r="620" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A620" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>617</v>
       </c>
       <c r="B620" s="5">
@@ -25352,7 +25604,7 @@
     </row>
     <row r="621" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A621" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>618</v>
       </c>
       <c r="B621" s="5">
@@ -25378,7 +25630,7 @@
     </row>
     <row r="622" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A622" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>619</v>
       </c>
       <c r="B622" s="5">
@@ -25404,7 +25656,7 @@
     </row>
     <row r="623" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A623" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>620</v>
       </c>
       <c r="B623" s="5">
@@ -25430,7 +25682,7 @@
     </row>
     <row r="624" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A624" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>621</v>
       </c>
       <c r="B624" s="5">
@@ -25456,7 +25708,7 @@
     </row>
     <row r="625" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A625" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>622</v>
       </c>
       <c r="B625" s="5">
